--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_4_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_4_square_10_.xlsx
@@ -587,33 +587,33 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.391997628275021e-12</v>
+        <v>2.475797344914099e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>1.391997628275021e-12</v>
+        <v>2.475797344914099e-14</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>61.31220992740709</v>
+        <v>58.54608633267811</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[48.30731233863271, 74.31710751618147]</t>
+          <t>[47.36139855250467, 69.73077411285155]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2.565059276093962e-12</v>
+        <v>9.681144774731365e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>2.565059276093962e-12</v>
+        <v>9.681144774731365e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>1.515763422452733</v>
+        <v>1.440289725069195</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.3019212798660407, 1.7296055650394253]</t>
+          <t>[1.2264475824825025, 1.6541318676558872]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,27 +623,27 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>53.46757750561992</v>
+        <v>49.98199184545564</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[45.141343407282605, 61.79381160395724]</t>
+          <t>[42.9592257927675, 57.00475789814378]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>17.58044044044058</v>
+        <v>17.8587587587589</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.791871871872</v>
+        <v>17.07019019019032</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.36900900900915</v>
+        <v>18.64732732732747</v>
       </c>
     </row>
     <row r="3">
@@ -673,33 +673,33 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.062794379753541e-13</v>
+        <v>2.783551167340192e-12</v>
       </c>
       <c r="I3" t="n">
-        <v>2.062794379753541e-13</v>
+        <v>2.783551167340192e-12</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>60.82066555535636</v>
+        <v>53.21247739906848</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[47.35687680606911, 74.28445430464362]</t>
+          <t>[40.48556725333137, 65.93938754480558]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>9.206191364796723e-12</v>
+        <v>8.472000878612107e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>9.206191364796723e-12</v>
+        <v>8.472000878612107e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>1.830237161550811</v>
+        <v>1.767342413731195</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.57865817027235, 2.0818161528292727]</t>
+          <t>[1.515763422452733, 2.0189214050096576]</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -709,11 +709,11 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>50.49335790625613</v>
+        <v>50.0009716250046</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[42.694916369600655, 58.2917994429116]</t>
+          <t>[42.604293628370705, 57.3976496216385]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>16.42078078078091</v>
+        <v>16.65271271271284</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.49305305305318</v>
+        <v>15.72498498498511</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.34850850850864</v>
+        <v>17.58044044044058</v>
       </c>
     </row>
     <row r="4">
@@ -759,33 +759,33 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>8.225642389447785e-13</v>
+        <v>2.919464670014804e-11</v>
       </c>
       <c r="I4" t="n">
-        <v>8.225642389447785e-13</v>
+        <v>2.919464670014804e-11</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>59.79978740612381</v>
+        <v>63.17791653770873</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[45.123929979727734, 74.47564483251988]</t>
+          <t>[45.18965184265281, 81.16618123276464]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.726632170573339e-10</v>
+        <v>7.918861566480473e-09</v>
       </c>
       <c r="O4" t="n">
-        <v>1.726632170573339e-10</v>
+        <v>7.918861566480473e-09</v>
       </c>
       <c r="P4" t="n">
-        <v>2.018921405009658</v>
+        <v>2.094395102393196</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.7547634641672731, 2.283079345852042]</t>
+          <t>[1.7925003128590413, 2.39628989192735]</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -795,27 +795,27 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>55.27734911820075</v>
+        <v>57.70387898545621</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[47.23809750968802, 63.316600726713475]</t>
+          <t>[48.145393185349064, 67.26236478556336]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="X4" t="n">
-        <v>15.72498498498511</v>
+        <v>15.44666666666679</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.75087087087099</v>
+        <v>14.3333933933935</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.69909909909923</v>
+        <v>16.55993993994007</v>
       </c>
     </row>
     <row r="5">
@@ -845,33 +845,33 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>5.095923683029469e-14</v>
+        <v>1.975675179011205e-11</v>
       </c>
       <c r="I5" t="n">
-        <v>5.095923683029469e-14</v>
+        <v>1.975675179011205e-11</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>60.65517908674854</v>
+        <v>52.30573581471734</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[46.487213539153345, 74.82314463434373]</t>
+          <t>[37.35256207211066, 67.25890955732403]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>4.355027449776117e-11</v>
+        <v>8.730876910334473e-09</v>
       </c>
       <c r="O5" t="n">
-        <v>4.355027449776117e-11</v>
+        <v>8.730876910334473e-09</v>
       </c>
       <c r="P5" t="n">
-        <v>2.056658253701427</v>
+        <v>2.169868799776734</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.8050792624229643, 2.308237244979889]</t>
+          <t>[1.8679740102425795, 2.4717635893108882]</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -881,27 +881,27 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>54.41570574192735</v>
+        <v>47.3586615359648</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[46.90843412667505, 61.92297735717966]</t>
+          <t>[39.521117840306005, 55.196205231623594]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="X5" t="n">
-        <v>15.58582582582595</v>
+        <v>15.16834834834847</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.65809809809821</v>
+        <v>14.05507507507519</v>
       </c>
       <c r="Z5" t="n">
-        <v>16.51355355355368</v>
+        <v>16.28162162162175</v>
       </c>
     </row>
     <row r="6">
@@ -931,33 +931,33 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.432187701766452e-14</v>
       </c>
       <c r="I6" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.432187701766452e-14</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>63.27468912415739</v>
+        <v>57.75147108771576</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[49.95036304722828, 76.5990152010865]</t>
+          <t>[43.89428330635461, 71.6086588690769]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2.058131443050115e-12</v>
+        <v>9.26958509950282e-11</v>
       </c>
       <c r="O6" t="n">
-        <v>2.058131443050115e-12</v>
+        <v>9.26958509950282e-11</v>
       </c>
       <c r="P6" t="n">
-        <v>2.459184639746966</v>
+        <v>2.333395144107735</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[2.2453424971602733, 2.673026782333658]</t>
+          <t>[2.1069740519571187, 2.5598162362583503]</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -967,11 +967,11 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>55.36379288919979</v>
+        <v>53.35184280844373</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[48.55246903109351, 62.17511674730606]</t>
+          <t>[46.41527078103088, 60.28841483585659]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>14.10146146146157</v>
+        <v>14.56532532532544</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.312892892893</v>
+        <v>13.73037037037048</v>
       </c>
       <c r="Z6" t="n">
-        <v>14.89003003003014</v>
+        <v>15.4002802802804</v>
       </c>
     </row>
     <row r="7">
@@ -1017,33 +1017,33 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.131628207280301e-14</v>
+        <v>4.430900091279e-13</v>
       </c>
       <c r="I7" t="n">
-        <v>2.131628207280301e-14</v>
+        <v>4.430900091279e-13</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>60.36647799397853</v>
+        <v>60.32294167392398</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[46.69956049122713, 74.03339549672992]</t>
+          <t>[45.04158624468138, 75.60429710316657]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.77653447508419e-11</v>
+        <v>4.067406411678576e-10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.77653447508419e-11</v>
+        <v>4.067406411678576e-10</v>
       </c>
       <c r="P7" t="n">
-        <v>2.685605731897581</v>
+        <v>2.635289933641888</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[2.434026740619119, 2.937184723176043]</t>
+          <t>[2.3711319927995036, 2.8994478744842733]</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -1053,11 +1053,11 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>55.96971912038239</v>
+        <v>53.36600118331512</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[48.55925588856071, 63.38018235220406]</t>
+          <t>[45.251722245264766, 61.480280121365475]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>13.26650650650661</v>
+        <v>13.45205205205216</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.33877877877888</v>
+        <v>12.47793793793804</v>
       </c>
       <c r="Z7" t="n">
-        <v>14.19423423423435</v>
+        <v>14.42616616616628</v>
       </c>
     </row>
     <row r="8">
@@ -1103,33 +1103,33 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.521005543736464e-14</v>
+        <v>2.55351295663786e-14</v>
       </c>
       <c r="I8" t="n">
-        <v>1.521005543736464e-14</v>
+        <v>2.55351295663786e-14</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>56.79925304502957</v>
+        <v>63.00032225104706</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[44.938304587080125, 68.660201502979]</t>
+          <t>[49.348616624195074, 76.65202787789904]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.593392084942025e-12</v>
+        <v>4.883426996116214e-12</v>
       </c>
       <c r="O8" t="n">
-        <v>1.593392084942025e-12</v>
+        <v>4.883426996116214e-12</v>
       </c>
       <c r="P8" t="n">
-        <v>2.92460577361212</v>
+        <v>2.899447874484274</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[2.698184681461504, 3.1510268657627365]</t>
+          <t>[2.660447832769735, 3.1384479161988126]</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1139,11 +1139,11 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>57.64029311364518</v>
+        <v>55.92303910862606</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[50.69952607542082, 64.58106015186954]</t>
+          <t>[48.105649477093586, 63.74042874015853]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>12.38516516516526</v>
+        <v>12.47793793793804</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.5502102102103</v>
+        <v>11.59659659659669</v>
       </c>
       <c r="Z8" t="n">
-        <v>13.22012012012022</v>
+        <v>13.35927927927938</v>
       </c>
     </row>
     <row r="9">
@@ -1183,39 +1183,39 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.6100000000001</v>
+        <v>22.6300000000001</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.252953462151709e-14</v>
+        <v>1.684652417566213e-11</v>
       </c>
       <c r="I9" t="n">
-        <v>3.252953462151709e-14</v>
+        <v>1.684652417566213e-11</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>54.55596574284096</v>
+        <v>52.71228075331926</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[43.49735127134028, 65.61458021434164]</t>
+          <t>[39.86176628813348, 65.56279521850503]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>6.350475700855895e-13</v>
+        <v>1.43817624476128e-10</v>
       </c>
       <c r="O9" t="n">
-        <v>6.350475700855895e-13</v>
+        <v>1.43817624476128e-10</v>
       </c>
       <c r="P9" t="n">
-        <v>2.987500521431735</v>
+        <v>3.037816319687427</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[2.7485004797171966, 3.226500563146274]</t>
+          <t>[2.76107942928112, 3.314553210093735]</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1225,27 +1225,27 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>54.82853639599796</v>
+        <v>52.07592316978028</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[47.92966107650967, 61.72741171548625]</t>
+          <t>[43.97151395652623, 60.18033238303433]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X9" t="n">
-        <v>11.85949949949955</v>
+        <v>11.68876876876882</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.9994594594595</v>
+        <v>10.6920520520521</v>
       </c>
       <c r="Z9" t="n">
-        <v>12.71953953953959</v>
+        <v>12.68548548548554</v>
       </c>
     </row>
     <row r="10">
@@ -1269,39 +1269,39 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.6100000000001</v>
+        <v>22.6300000000001</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.109423746787797e-13</v>
+        <v>1.998401444325282e-15</v>
       </c>
       <c r="I10" t="n">
-        <v>2.109423746787797e-13</v>
+        <v>1.998401444325282e-15</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>60.35638072321591</v>
+        <v>58.30885175301719</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[47.03637804234852, 73.67638340408331]</t>
+          <t>[47.3129774436797, 69.30472606235469]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>8.40771896548631e-12</v>
+        <v>6.350475700855895e-14</v>
       </c>
       <c r="O10" t="n">
-        <v>8.40771896548631e-12</v>
+        <v>6.350475700855895e-14</v>
       </c>
       <c r="P10" t="n">
-        <v>-2.905737349266235</v>
+        <v>-3.00636894577762</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-3.144737390980773, -2.6667373075516965]</t>
+          <t>[-3.20763213880039, -2.8051057527548497]</t>
         </is>
       </c>
       <c r="R10" t="n">
@@ -1311,11 +1311,11 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>59.13578940798147</v>
+        <v>53.81026391962709</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[51.111008801102926, 67.16057001486001]</t>
+          <t>[47.03484978698536, 60.58567805226882]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1325,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>10.45627627627632</v>
+        <v>10.82796796796801</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.596236236236278</v>
+        <v>10.10308308308312</v>
       </c>
       <c r="Z10" t="n">
-        <v>11.31631631631636</v>
+        <v>11.5528528528529</v>
       </c>
     </row>
     <row r="11">
@@ -1355,39 +1355,39 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.6100000000001</v>
+        <v>22.6300000000001</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>4.561906408184768e-13</v>
       </c>
       <c r="I11" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>4.561906408184768e-13</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>62.19501946866834</v>
+        <v>57.40193008241496</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[49.15890731447149, 75.23113162286519]</t>
+          <t>[42.31916078561868, 72.48469937921124]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1.785460668202177e-12</v>
+        <v>1.063010124369157e-09</v>
       </c>
       <c r="O11" t="n">
-        <v>1.785460668202177e-12</v>
+        <v>1.063010124369157e-09</v>
       </c>
       <c r="P11" t="n">
-        <v>-2.666737307551696</v>
+        <v>-2.490632013656773</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-2.8931583997023114, -2.4403162154010807]</t>
+          <t>[-2.754789954499157, -2.2264740728143884]</t>
         </is>
       </c>
       <c r="R11" t="n">
@@ -1397,11 +1397,11 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>55.61879255014586</v>
+        <v>54.87453515276783</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[48.5750715896898, 62.662513510601926]</t>
+          <t>[47.20775455247836, 62.541315753057305]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1411,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>9.596236236236276</v>
+        <v>8.970450450450491</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.781461461461499</v>
+        <v>8.019039039039077</v>
       </c>
       <c r="Z11" t="n">
-        <v>10.41101101101105</v>
+        <v>9.921861861861904</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.6100000000001</v>
+        <v>22.6300000000001</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>9.083177543445231e-10</v>
+        <v>1.865174681370263e-13</v>
       </c>
       <c r="I12" t="n">
-        <v>9.083177543445231e-10</v>
+        <v>1.865174681370263e-13</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>55.99691045653483</v>
+        <v>60.32216082881818</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[38.15038189562948, 73.84343901744018]</t>
+          <t>[45.665959232130746, 74.97836242550562]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1.045717625824949e-07</v>
+        <v>1.310715980196164e-10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.045717625824949e-07</v>
+        <v>1.310715980196164e-10</v>
       </c>
       <c r="P12" t="n">
-        <v>-2.100684577175157</v>
+        <v>-2.163579324994773</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.4403162154010807, -1.7610529389492329]</t>
+          <t>[-2.402579366709311, -1.9245792832802344]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>52.63094073074537</v>
+        <v>50.55037092662859</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[43.162801645456184, 62.09907981603456]</t>
+          <t>[42.83861263310985, 58.26212922014733]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.332267629550188e-14</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>1.332267629550188e-14</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>7.559299299299331</v>
+        <v>7.792512512512548</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.337137137137162</v>
+        <v>6.931711711711745</v>
       </c>
       <c r="Z12" t="n">
-        <v>8.7814614614615</v>
+        <v>8.653313313313351</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_4_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_4_square_10_.xlsx
@@ -581,39 +581,39 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.17000000000018</v>
+        <v>23.23000000000019</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.475797344914099e-14</v>
+        <v>1.98729921407903e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>2.475797344914099e-14</v>
+        <v>1.98729921407903e-13</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>58.54608633267811</v>
+        <v>59.59674710516911</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[47.36139855250467, 69.73077411285155]</t>
+          <t>[48.19738517891979, 70.99610903141843]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>9.681144774731365e-14</v>
+        <v>1.005862060310392e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>9.681144774731365e-14</v>
+        <v>1.005862060310392e-13</v>
       </c>
       <c r="P2" t="n">
-        <v>1.440289725069195</v>
+        <v>1.566079220708426</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.2264475824825025, 1.6541318676558872]</t>
+          <t>[1.3522370781217337, 1.7799213632951183]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>49.98199184545564</v>
+        <v>54.21749198321198</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[42.9592257927675, 57.00475789814378]</t>
+          <t>[46.59131639508887, 61.84366757133509]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>17.8587587587589</v>
+        <v>17.43993993994008</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.07019019019032</v>
+        <v>16.64932932932946</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.64732732732747</v>
+        <v>18.2305505505507</v>
       </c>
     </row>
     <row r="3">
@@ -667,39 +667,39 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.17000000000018</v>
+        <v>23.23000000000019</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.783551167340192e-12</v>
+        <v>1.896438561743707e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>2.783551167340192e-12</v>
+        <v>1.896438561743707e-11</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>53.21247739906848</v>
+        <v>52.15987803040021</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[40.48556725333137, 65.93938754480558]</t>
+          <t>[38.21278196482736, 66.10697409597307]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>8.472000878612107e-11</v>
+        <v>1.665880322576641e-09</v>
       </c>
       <c r="O3" t="n">
-        <v>8.472000878612107e-11</v>
+        <v>1.665880322576641e-09</v>
       </c>
       <c r="P3" t="n">
-        <v>1.767342413731195</v>
+        <v>1.956026657190042</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.515763422452733, 2.0189214050096576]</t>
+          <t>[1.6667108172198102, 2.245342497160273]</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -709,11 +709,11 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>50.0009716250046</v>
+        <v>50.5110113712905</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[42.604293628370705, 57.3976496216385]</t>
+          <t>[42.75749226852715, 58.26453047405385]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>16.65271271271284</v>
+        <v>15.99823823823837</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.72498498498511</v>
+        <v>14.92858858858871</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.58044044044058</v>
+        <v>17.06788788788803</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.17000000000018</v>
+        <v>23.23000000000019</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.919464670014804e-11</v>
+        <v>3.34186234240974e-10</v>
       </c>
       <c r="I4" t="n">
-        <v>2.919464670014804e-11</v>
+        <v>3.34186234240974e-10</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>63.17791653770873</v>
+        <v>56.88375885557841</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[45.18965184265281, 81.16618123276464]</t>
+          <t>[39.86935021238371, 73.8981674987731]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>7.918861566480473e-09</v>
+        <v>2.532587006776055e-08</v>
       </c>
       <c r="O4" t="n">
-        <v>7.918861566480473e-09</v>
+        <v>2.532587006776055e-08</v>
       </c>
       <c r="P4" t="n">
-        <v>2.094395102393196</v>
+        <v>1.981184556317888</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.7925003128590413, 2.39628989192735]</t>
+          <t>[1.6541318676558872, 2.308237244979888]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="T4" t="n">
-        <v>57.70387898545621</v>
+        <v>55.72395345011597</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[48.145393185349064, 67.26236478556336]</t>
+          <t>[46.3858456911108, 65.06206120912114]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="W4" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="X4" t="n">
-        <v>15.44666666666679</v>
+        <v>15.90522522522536</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.3333933933935</v>
+        <v>14.69605605605618</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.55993993994007</v>
+        <v>17.11439439439454</v>
       </c>
     </row>
     <row r="5">
@@ -839,39 +839,39 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.17000000000018</v>
+        <v>23.23000000000019</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.975675179011205e-11</v>
+        <v>7.706058013923212e-12</v>
       </c>
       <c r="I5" t="n">
-        <v>1.975675179011205e-11</v>
+        <v>7.706058013923212e-12</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>52.30573581471734</v>
+        <v>57.63980951233124</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[37.35256207211066, 67.25890955732403]</t>
+          <t>[41.85983564833715, 73.41978337632533]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>8.730876910334473e-09</v>
+        <v>3.020746763837678e-09</v>
       </c>
       <c r="O5" t="n">
-        <v>8.730876910334473e-09</v>
+        <v>3.020746763837678e-09</v>
       </c>
       <c r="P5" t="n">
         <v>2.169868799776734</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.8679740102425795, 2.4717635893108882]</t>
+          <t>[1.8931319093704255, 2.446605690183042]</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -881,27 +881,27 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>47.3586615359648</v>
+        <v>54.99304767066406</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[39.521117840306005, 55.196205231623594]</t>
+          <t>[46.62411594374045, 63.361979397587675]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>15.16834834834847</v>
+        <v>15.20762762762775</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.05507507507519</v>
+        <v>14.1844844844846</v>
       </c>
       <c r="Z5" t="n">
-        <v>16.28162162162175</v>
+        <v>16.23077077077091</v>
       </c>
     </row>
     <row r="6">
@@ -925,39 +925,39 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.17000000000018</v>
+        <v>23.23000000000019</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.432187701766452e-14</v>
+        <v>2.55351295663786e-15</v>
       </c>
       <c r="I6" t="n">
-        <v>1.432187701766452e-14</v>
+        <v>2.55351295663786e-15</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>57.75147108771576</v>
+        <v>63.74627573373125</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[43.89428330635461, 71.6086588690769]</t>
+          <t>[49.78107105622781, 77.7114804112347]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>9.26958509950282e-11</v>
+        <v>6.764588889041079e-12</v>
       </c>
       <c r="O6" t="n">
-        <v>9.26958509950282e-11</v>
+        <v>6.764588889041079e-12</v>
       </c>
       <c r="P6" t="n">
-        <v>2.333395144107735</v>
+        <v>2.434026740619119</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[2.1069740519571187, 2.5598162362583503]</t>
+          <t>[2.207605648468504, 2.6604478327697345]</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -967,11 +967,11 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>53.35184280844373</v>
+        <v>56.61963593504667</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[46.41527078103088, 60.28841483585659]</t>
+          <t>[49.30541289571184, 63.933858974381494]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>14.56532532532544</v>
+        <v>14.23099099099111</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.73037037037048</v>
+        <v>13.39387387387399</v>
       </c>
       <c r="Z6" t="n">
-        <v>15.4002802802804</v>
+        <v>15.06810810810823</v>
       </c>
     </row>
     <row r="7">
@@ -1011,39 +1011,39 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.17000000000018</v>
+        <v>23.23000000000019</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>4.430900091279e-13</v>
+        <v>2.812527988282909e-12</v>
       </c>
       <c r="I7" t="n">
-        <v>4.430900091279e-13</v>
+        <v>2.812527988282909e-12</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>60.32294167392398</v>
+        <v>58.22623810170413</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[45.04158624468138, 75.60429710316657]</t>
+          <t>[43.17860833395518, 73.27386786945308]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.067406411678576e-10</v>
+        <v>6.89804435793917e-10</v>
       </c>
       <c r="O7" t="n">
-        <v>4.067406411678576e-10</v>
+        <v>6.89804435793917e-10</v>
       </c>
       <c r="P7" t="n">
         <v>2.635289933641888</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[2.3711319927995036, 2.8994478744842733]</t>
+          <t>[2.3459740936716575, 2.9246057736121194]</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -1053,11 +1053,11 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>53.36600118331512</v>
+        <v>56.74388937468197</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[45.251722245264766, 61.480280121365475]</t>
+          <t>[48.4462921918572, 65.04148655750674]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>13.45205205205216</v>
+        <v>13.486886886887</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.47793793793804</v>
+        <v>12.41723723723734</v>
       </c>
       <c r="Z7" t="n">
-        <v>14.42616616616628</v>
+        <v>14.55653653653665</v>
       </c>
     </row>
     <row r="8">
@@ -1097,39 +1097,39 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.17000000000018</v>
+        <v>23.23000000000019</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.55351295663786e-14</v>
+        <v>2.331468351712829e-15</v>
       </c>
       <c r="I8" t="n">
-        <v>2.55351295663786e-14</v>
+        <v>2.331468351712829e-15</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>63.00032225104706</v>
+        <v>60.15702483704136</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[49.348616624195074, 76.65202787789904]</t>
+          <t>[48.24392245881103, 72.07012721527168]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>4.883426996116214e-12</v>
+        <v>3.05311331771918e-13</v>
       </c>
       <c r="O8" t="n">
-        <v>4.883426996116214e-12</v>
+        <v>3.05311331771918e-13</v>
       </c>
       <c r="P8" t="n">
-        <v>2.899447874484274</v>
+        <v>2.886868924920351</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[2.660447832769735, 3.1384479161988126]</t>
+          <t>[2.6730267823336584, 3.100711067507043]</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1139,11 +1139,11 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>55.92303910862606</v>
+        <v>51.05127802421209</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[48.105649477093586, 63.74042874015853]</t>
+          <t>[44.097461686911096, 58.00509436151308]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>12.47793793793804</v>
+        <v>12.55675675675686</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.59659659659669</v>
+        <v>11.76614614614624</v>
       </c>
       <c r="Z8" t="n">
-        <v>13.35927927927938</v>
+        <v>13.34736736736748</v>
       </c>
     </row>
     <row r="9">
@@ -1183,39 +1183,39 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.6300000000001</v>
+        <v>22.6100000000001</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.684652417566213e-11</v>
+        <v>2.589939374075811e-11</v>
       </c>
       <c r="I9" t="n">
-        <v>1.684652417566213e-11</v>
+        <v>2.589939374075811e-11</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>52.71228075331926</v>
+        <v>57.03550318935465</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[39.86176628813348, 65.56279521850503]</t>
+          <t>[42.460850555252975, 71.61015582345632]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1.43817624476128e-10</v>
+        <v>5.124172197668031e-10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.43817624476128e-10</v>
+        <v>5.124172197668031e-10</v>
       </c>
       <c r="P9" t="n">
-        <v>3.037816319687427</v>
+        <v>3.000079470995658</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[2.76107942928112, 3.314553210093735]</t>
+          <t>[2.72334258058935, 3.2768163614019667]</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1225,27 +1225,27 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>52.07592316978028</v>
+        <v>52.74295053495815</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[43.97151395652623, 60.18033238303433]</t>
+          <t>[43.84617119392391, 61.6397298759924]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="W9" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="X9" t="n">
-        <v>11.68876876876882</v>
+        <v>11.81423423423428</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.6920520520521</v>
+        <v>10.81839839839844</v>
       </c>
       <c r="Z9" t="n">
-        <v>12.68548548548554</v>
+        <v>12.81007007007013</v>
       </c>
     </row>
     <row r="10">
@@ -1269,39 +1269,39 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.6300000000001</v>
+        <v>22.6100000000001</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>4.166444966813287e-12</v>
       </c>
       <c r="I10" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>4.166444966813287e-12</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>58.30885175301719</v>
+        <v>55.32544935868487</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[47.3129774436797, 69.30472606235469]</t>
+          <t>[41.53395498058616, 69.11694373678358]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>6.350475700855895e-14</v>
+        <v>2.639852780816909e-10</v>
       </c>
       <c r="O10" t="n">
-        <v>6.350475700855895e-14</v>
+        <v>2.639852780816909e-10</v>
       </c>
       <c r="P10" t="n">
-        <v>-3.00636894577762</v>
+        <v>-2.880579450138389</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-3.20763213880039, -2.8051057527548497]</t>
+          <t>[-3.16989529010862, -2.5912636101681574]</t>
         </is>
       </c>
       <c r="R10" t="n">
@@ -1311,27 +1311,27 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>53.81026391962709</v>
+        <v>51.82396341091125</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[47.03484978698536, 60.58567805226882]</t>
+          <t>[43.75238425933374, 59.89554256248877]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X10" t="n">
-        <v>10.82796796796801</v>
+        <v>10.36574574574579</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.10308308308312</v>
+        <v>9.324644644644685</v>
       </c>
       <c r="Z10" t="n">
-        <v>11.5528528528529</v>
+        <v>11.4068468468469</v>
       </c>
     </row>
     <row r="11">
@@ -1355,39 +1355,39 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.6300000000001</v>
+        <v>22.6100000000001</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>4.561906408184768e-13</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="I11" t="n">
-        <v>4.561906408184768e-13</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>57.40193008241496</v>
+        <v>60.92301596437675</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[42.31916078561868, 72.48469937921124]</t>
+          <t>[48.29169623313931, 73.55433569561418]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1.063010124369157e-09</v>
+        <v>1.27897692436818e-12</v>
       </c>
       <c r="O11" t="n">
-        <v>1.063010124369157e-09</v>
+        <v>1.27897692436818e-12</v>
       </c>
       <c r="P11" t="n">
-        <v>-2.490632013656773</v>
+        <v>-2.465474114528927</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-2.754789954499157, -2.2264740728143884]</t>
+          <t>[-2.6793162571156195, -2.251631971942234]</t>
         </is>
       </c>
       <c r="R11" t="n">
@@ -1397,11 +1397,11 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>54.87453515276783</v>
+        <v>54.93766617844452</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[47.20775455247836, 62.541315753057305]</t>
+          <t>[48.23178962310018, 61.643542733788856]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1411,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>8.970450450450491</v>
+        <v>8.871991991992031</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.019039039039077</v>
+        <v>8.102482482482518</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.921861861861904</v>
+        <v>9.641501501501544</v>
       </c>
     </row>
     <row r="12">
@@ -1441,39 +1441,39 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.6300000000001</v>
+        <v>22.6100000000001</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.865174681370263e-13</v>
+        <v>7.80486786311485e-14</v>
       </c>
       <c r="I12" t="n">
-        <v>1.865174681370263e-13</v>
+        <v>7.80486786311485e-14</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>60.32216082881818</v>
+        <v>60.11180275084286</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[45.665959232130746, 74.97836242550562]</t>
+          <t>[45.633670280732886, 74.58993522095282]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1.310715980196164e-10</v>
+        <v>1.029556440101942e-10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.310715980196164e-10</v>
+        <v>1.029556440101942e-10</v>
       </c>
       <c r="P12" t="n">
-        <v>-2.163579324994773</v>
+        <v>-2.125842476303003</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.402579366709311, -1.9245792832802344]</t>
+          <t>[-2.364842518017542, -1.8868424345884636]</t>
         </is>
       </c>
       <c r="R12" t="n">
@@ -1483,11 +1483,11 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>50.55037092662859</v>
+        <v>54.17422016960123</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[42.83861263310985, 58.26212922014733]</t>
+          <t>[46.7134297574068, 61.635010581795655]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>7.792512512512548</v>
+        <v>7.649829829829862</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.931711711711745</v>
+        <v>6.789789789789817</v>
       </c>
       <c r="Z12" t="n">
-        <v>8.653313313313351</v>
+        <v>8.509869869869908</v>
       </c>
     </row>
   </sheetData>
